--- a/aeri2012_data_reconciled.xlsx
+++ b/aeri2012_data_reconciled.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HeatherSoyka/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C7584B-29BC-4087-82FA-CB8177707EE6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB85F3D-2F31-E049-A40D-AF6203A4FDCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12348" windowHeight="7488" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="25300" windowHeight="20800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$I$95</definedName>
+  </definedNames>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="392">
   <si>
     <t>ID Number</t>
   </si>
@@ -929,14 +932,6 @@
     <t>Toward the Development of a Research Framework for Community-Based Archival Initiatives</t>
   </si>
   <si>
-    <t>[No presenter institution in program.]</t>
-  </si>
-  <si>
-    <t>Creating a Strategy for
-Building a State Electronic Records
-Program</t>
-  </si>
-  <si>
     <t>Ambition and Ambivalence:  A Study of Professional Attitudes Toward Digital Distribution of Archival Moving Images</t>
   </si>
   <si>
@@ -1091,13 +1086,6 @@
 There have been a great amount of studies regarding Facebook in various fields, including sociology, communication, economics, marketing, psychology, etc. However, in the information science field, there is only limited literature available, those mainly regarding the usage of Facebook in relation to online information sharing. This study intends to look at how the Facebook is used in terms of personal documentation: how users record their everyday lives; what are the activities they perform in regards to archive such contents; whether they perceive their Facebook activities as their personal documentation; and what factors there are to influence their activities of personal documentation. We conduct an online survey to ask these questions to Facebook users. From the understanding about the Facebook users’ activities and demands, we discuss about personal archiving on the web and the role of information professionals.</t>
   </si>
   <si>
-    <t>Accountability is one of the foundational concepts upon which modern archival practice and theory is based. It is a concept that is seen to be basic because it relates to the degree towhich one can ensure the trustworthiness of records and, by extension, the accuracy and reliability of the record in question. 
-As the title of the proposed paper suggests, I argue that accountability is a concept that is increasingly fraught as a result of contemporary developments in record-keeping and politics more generally. It refers to two senses in which the end of accountability is occurring. The first is represented by the decreasing levels of transparency with regard to records of state, perhaps best typified by the USA Patriot Act. In this sense, accountability is coming to an end as a result of tactics targeted making it impossible to account for certain actions. This sense is descriptive and lamentable.
-The second sense in which I argue that accountability is coming to an end relates to the proliferation of documentation utilizing digital technologies and the challenge to basic principles supporting accountability that they illustrate. Accountability is ending in this sense due to the impossibility of ever truly being able to account for an action with certainty. The digital represents this in its apparent complexity, multiplicity and rapid “reconfigurability,” but it is merely a stark example of a deeper issue at the heart of modern societies and theories of
-information. This sense of the end of accountability is normative and, I argue, a positive development for archivists and record managers, who may use the end of accountability as an opportunity to fashion new conceptual tools with which to both evaluate and utilize records. 
-I draw first on an analysis of contemporary cases in which issues of records and accountability have surfaced in popular discourse, primarily the USA Patriot Act and Wikileaks, to illustrate the political aspects of the argument. I also draw on examples from my dissertation research on Personal Health Records and Self21 Documentation to illustrate arguments about the digital.</t>
-  </si>
-  <si>
     <t>This paper, which reports the ongoing research of the author’s dissertation, is a historical examination of the influences that have played a role in shaping archaeological recordkeeping during the 20th Century. Utilizing data gathered from archival sources and interviews, the goal of this project is to provide analysis of the primary influences that shape the recordkeeping practices of archaeologists in the U.S. In particular, this report summarizes findings related to prominent, long-lived archaeologists and their recordkeeping practices, and places observations of these phenomena in their historical context, providing a juxtaposed view of their changing technological surroundings. Through an examination of these materials several observations discussed include issues of the adoption of technology and related issues pertaining to the training of future archaeological records creators. It is through a better understanding of these phenomena that this study addresses theoretical and pragmatic issues for archaeologists and records professionals in the cultural heritage domain. There is much discussion in the literature on how technology and policy have impacted the practice of archaeology. However, there is need for discussion on topics such as speed and level of adoption. Preservation of archaeological records continues to be a growing need, as entities have emerged to contend with digitization. This project provides research in an area of great need to both the archival and archaeological professions by providing a narrative chronology of archaeological recordkeeping; describing in detail the external mandates that lead to evolutionary changes in practices for recording archaeological research; and helps to provide a context for archaeologists and records professionals who are dealing with the current changes occurring in archaeological record keeping and records use.</t>
   </si>
   <si>
@@ -1105,13 +1093,7 @@
 This presentation will discuss how the concrete objectives of the assignment were serendipitously enhanced by the discoveries one group of students made early on about their project materials’ historical context, offering a framework for productive experiential learning about archival practices and concepts, and outlining a process model for collaborative repatriation of historic materials discovered via the collectors’ market.</t>
   </si>
   <si>
-    <t>Univesity of Wisconsin; University of Californa Los Angeles; University of Californa Los Angeles; Simmons College; University of Michigan</t>
-  </si>
-  <si>
     <t>University of Texas; University of Texas; University of Texas; University of Texas; Michigan Technological University</t>
-  </si>
-  <si>
-    <t>University of Wisconsin Milwaukee; University of Wisconsin; University of California Los Angeles; University of California Los Angeles</t>
   </si>
   <si>
     <t>The people who opened the Joseon Dynasty aimed at constructing the confucian community based on the propriety as the principle of the society. Hereby the confucian community meant the kingdom as a strict hierarchical, patriarchical family community based on propriety. So, this concept of the community is completely different from the ‘community’ of the present community archives movement. 
@@ -1158,11 +1140,6 @@
 This workshop/grand challenge will consist of two parts. Part one will be the nuts and bolts of setting a scholarly agenda that is proactive instead of reactive, and that encourages scholarly advocacy. Part two will involve working on your scholarly agenda – to create an academic future where your passions and work can come together.</t>
   </si>
   <si>
-    <t>This presentation reports ongoing research underway at GSLIS, Simmons in the area of Cultural Heritage Informatics, focusing specifically on the often ambiguous role of archives and records. With the assistance of IMLS and NHPRC grants, GSLIS has been developing a cultural heritage informatics curriculum that includes experimental convergence projects with cultural heritage sites in the New England region. Each of these sites includes library,k archival and museum materials, each of these sites has expressed the desire to connect and converge its holdings digitally and each identified a specific digital project to model a convergence product.
-Preliminary results from these sites not only indicate the many problematic issues and difficulties of convergence but also indicate the ambiguous nature of archives themselves within this type of cultural heritage setting. While the concept of convergence suggests a blurring of the traditional boundaries between record, object and artifact, and the affordances of technology accomodate that blurring archivists themselves need to be central players in redefining the cultural archive.
-This presentation will explore these issues, offering preliminary results from the cultural heritage sites. It will analyze and further probe the questions of cultural archives raised by these experiments.</t>
-  </si>
-  <si>
     <t>The convergence of archives, library, and museum collections and practices suggests an opportunity for LIS to assert leadership in a number of areas. Among these are critical thinking skills and information literacy with special attention to an emerging and engrossing digital environment in terms of collection, access, and production. Recent meetings of both the American Historical Association and the Modern Language Association included a large number of panels on specific aspects of digital humanities and digital humanities projects that seemed at times to stray from disciplinary boundaries and cross into the domain of LIS , specifically archival theory and practice, without acknowledgement.
 My research presentation for AERI highlights collaborative work with a fellow doctoral student at GSLIS, Noah Lenstra, to research and develop a course in digital public history within an LIS program. The course draws on archival theory and practice and prepares students to develop critical thinking skills and innovative ways to implement and advocate for collaborations among the many stakeholders in the realm of digital humanities scholarship, research, and practice. Our particular focus is public history understood as a collaboration involving diverse and disparate publics working together to “make the past useful.” Course readings and assignments acknowledge the many stakeholders and potential collaborators and turn a critical and disciplinary eye to provoke and facilitate student discussion of issues such as the archival record, memory, historical consciousness, and what the LIS professional brings to digital public history and, more broadly, digital research collaborations. I am particularly interested in provoking critical discussion and soliciting feedback from colleagues at AERI that can help us strengthen and substantiate this type of course in archives curriculum and more broadly, LIS curriculum.</t>
   </si>
@@ -1177,13 +1154,6 @@
     <t>My paper, “The Role of Photography in the Protection, Identification, and Recovery of Cultural Heritage” is the product of a seminar on photographs as evidence with Dr. Bernadette Callery in the summer of 2011. Accepted for publication in The International Journal of Cultural Property, this paper seeks to contribute to the study surrounding documentation and the illicit trade through an examination of the related uses of photography by the international community. Popular and academic literature, news reports, and online databases reveal three primary and interconnected relationships that exist between photography and the trade of cultural heritage. Photography, it appears, is used for the protection, identification, and recovery of objects of cultural heritage. Countries, and the cultural institutions that reside within them, are encouraged to document their heritage through the creation of photographic records. This, UNESCO argues, is a protective measure that will aid the international community in responding to an act of theft or looting should one occur. If an object enters the illicit market, photographs may be used to identify and locate the stolen or smuggled work. The final step that may be supported by photography is recovery, with photographic evidence validating an ownership claim and leading to the repatriation or replevin of the object.</t>
   </si>
   <si>
-    <t>Archival records are increasingly important evidence of American business and industrial history. As American industry has experienced decline, many buildings and sites associated with business, manufacturing, mining, and heavy industry have been altered, abandoned, or removed. It is unclear whether a comprehensive or coherent amount of historical material is being retained for future use by historians and other researchers.
-This presentation will chart the founding and early development of Baker Library at the Harvard Business School in Cambridge, Mass. Established in 1908 to serve the nation‟s first-ever graduate school of business and economics. With access to significant faculty and alumni, Baker Library quickly developed wide-ranging print and manuscript collections documenting business administration and economics. Of particular novelty at the school was the development of the Harvard Business School “case method,” in which student undertake analyses of real-world business problems. The construction of such cases required access to a variety of business information, data which was collected and preserved in Baker Library‟s collections.
-Construction of a standalone building in the new Business School campus in 1927 provided additional catalyst to Baker Library‟s expanding collections. In addition, the library developed a close and lasting relationship with the Business Historical Society whose mission was to “locate and preserve original business resources, promote the study of business, and publish research in business history.” Baker Library served as repository for the Society‟s collections and fully inherited the collections in 1953.
-A review of Baker‟s early history also allows opportunities to compare and contrast other significant American business archives. The Hagley Museum and Library in Wilmington Delaware, for instance, was founded in 1953 by Pierre S. du Pont, president of the E.I. du Pont de Nemours chemical company and chairman of General Motors. Formed initially as a library for du Pont‟s family papers and books, it merged with a du Pont industrial museum at the site of the company‟s former powder works in 1961 and became an active collector of business manuscripts. Alternatively, the collections of Archives Center within the National Museum of American History, part of the Smithsonian Institution, reflect museum origins and a curator‟s hands in its early development. Established initially as the  Museum of History and Technology in 1955 in Washington, D.C., many of its important industrial manuscripts were acquired while gathering objects and artifacts for interpretive exhibits opened in a new museum building in 1964.
-Although the mission, funding, and archival collecting activities of repositories for business records change over time, an examination of their establishment and early work highlights important differences in each institutional context which continue to affect their selection of manuscript material for permanent preservation. In the case of the Baker Library, support of graduate education, faculty research, and alumni interactions guided its acquisition activities quite differently from industrial museums such as Hagley and Smithsonian.  This research not only reveals aspects of archival practice at this specific institution but can inform appraisal and selection theory and future collecting in the topical area of business and industrial manuscripts.</t>
-  </si>
-  <si>
     <t>Litigation is a risk that all organizations face. In the event that an organization is sued and the parties go to trial, the organization must be able to use its records to support its case or refute the opponent’s position. In common law countries (U.S., Canada, UK, Australia, etc.) a record is considered hearsay if submitted as evidence for the truth of its contents, and is therefore inadmissible unless it satisfies an exception to the hearsay rule. One of the first exceptions to this rule that emerged in the late 17th century and continues to this day is the “business records exception to hearsay.” In order to establish whether a record satisfies this exception, the courts apply a set of criteria aimed to assess its reliability. The concept of reliability is one of archival science’s theoretical pillars and is defined as “the trustworthiness of a record as a statement of fact, as to content” (Duranti, 2009, p. 52). A reliable record is one that is authored by the person competent for issuing such record, in the usual and ordinary course of business and for the purposes of such business, at a time close to the fact in question, and according to an established and controlled routine. Despite its historical roots and importance to law and archival science, the concept of reliability has not been examined by conducting empirical research.
 This presentation will present findings from author’s dissertation that examines the criteria Canadian courts use to assess the reliability of business records as evidence. The author reviewed over 100 legal rulings from courts in British Columbia and Ontario dating from the 1970s to the present. The study accumulated contextual data about the rulings, including the number of business records at issue, types of records at issue, and which records the courts accepted or rejected as evidence. Using content analysis, the rulings were analyzed to understand why the courts excluded certain business records. The research explores how an organization’s use of recordkeeping resources and tools, such as recordkeeping standards, may support the conditions for admissibility set forth by the Canadian courts. The study aims to establish the relationship between archival science and the legal profession by shedding much needed light on the measures organizations need to take to protect themselves against certain legal risks and to ensure that their records, if relevant to a case, will be admitted as evidence in a court of law.</t>
   </si>
@@ -1198,16 +1168,6 @@
 Pre-workshop readings
 Gillian Oliver, Joanne Evans, Barbara Reed and Frank Upward, ‘Achieving the Right Balance’, Parts 1 and 2, in the Records Management Association of Australia Quarterly Vol. 25 No 4 (2009) pp. 18-22 and Vol. 26 No.1 (2010) pp. 42-45
 Barbara Reed, Dubbo University, A Case study designed for teaching use, 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modern criminals work across the boundaries between the physical and the digital worlds. Many argue that only one environment exists, with not boundary between the physical and the digital. That is debatable, but this paper argues that in the world of modern police investigations the physical/digital boundary clearly exists.  It is also argued that in many crimes the modern criminal can be interpreted and understood as a hybrid.  A hybrid is a unit of analysis that is an individual + Information Technology, i.e the IT cannot be seen as a separate artefact that individuals use. In this presentation the criminal and the criminal acts will be analyzed as a hybrid, but the way the police act in response to the crimes cannot be seen as hybrid action because the police separate their action into two specialist groups: IT-experts and traditional police officers.
-Police investigations should capture records of both the police activities as well as the criminals’ activities. A crime is often a chain of activities that can together be judged as a crime, and the police need to find evidence for this chain of activities.
-A criminal acting in a hybrid environment acts as if there are no borders: their activities can be carried out in fully digital, semi digital, and in fully analogue environments. However the police do not act as hybrids, they use expert police officers for surveillance in the digital world, and they use regular police officers to work in the analogue world. The IT-police are expert in IT activities and the others are experts in traditional police work. This means that the analogue police capture only records that they know are important for their tasks, and the IT police capture only records important to theirs. This unfortunately results in situations wherein complete and unbroken chains of criminal activities are not captured. After capture, the poilce need to aggregate collected records and evidence into a chain that provides proof “beyond reasonable doubt”. The collected records often lack the complete contextual richness that is needed to fully investigate a crime that has taken place in a hybrid environment.
-One problem with the current approach is that the records captured are not fully representing all the activities that the crime produces and encompasses.  It is not possible to understand the full range of the criminals’ behaviour because some activities have not been captured. When records are artificially aggregated without assurance that they are complete, authenticity and reliability of the records can then be challenged.
-Another issue that compunds the problem is that neither group accepts responsibility for records capture when information is exchanged between IT-police and traditional police.
-Knowledge from this research is transferable to other hybrid environments as for example business using social media, virtual communities as part of the advertisement and communication.
-There is a need for greater awareness that the criminal investigation is taking place in a hybrid arena and that the currently accepted perspective where the police act in different context separated by boundaries, negatively affects the quality of records capture. This research case is based on a large police investigation in Sweden. Problems related to records capture will be identified and solutions suggested.
-</t>
   </si>
   <si>
     <t>For last decade there has been a growing movement for archivists to see archives as sites for diverse communities and their memories. Archivists began to talk more about their cultures, rituals, songs, dances, and symbols, exploring their records and memory. However, the more interested they became in cultural records, the more archivists found that they are distinct in meanings, functions, and representation from those of the West. Archives became a space for all kinds of mysteries.
@@ -1285,6 +1245,117 @@
 1. How do social media platforms facilitate collaborative collections? What are the prominent types of collections, and how do they function?
 2. How do social media collections function as community archives?
 3. What is the relationship between social media platforms and the collections built in them? How can archival practice accommodate these collections, and how can platforms be better designed to facilitate preservation?</t>
+  </si>
+  <si>
+    <t>Does archival training and research begin in graduate school or can we as educators encourage undergraduates to understand and use archives? How can archival educators improve outreach efforts and promote the archival profession as a viable and fulfilling career option to undergraduates? Recent efforts within the AERI community, such as the Emerging Archival Scholars Program, demonstrate a strong interest in extending the reach of archival education to recruit undergraduate
+students.
+Yet there is scant literature on the design and teaching of undergraduate credit coursework relating to archival administration. This workshop will address the development of undergraduate courses that incorporate archival education, fostering understanding and use of archives and archival materials. The session will include consideration of potential curricular components, including readings/textbooks, lecture content, hands-on projects, and the potential for guest lecturers and field experiences.
+The expected outcomes of the workshop include:
+-Identify and articulate objectives appropriate for undergraduate course syllabi.
+-Develop a working bibliography for introducing students to archival theories, concepts, and principles.
+-Create a pool of example exercises that support and satisfy identified objectives.
+-Develop lesson plans that engage undergraduate students.
+The 90-minute workshop will involve a strategic session discussing how best to incorporate archival education and training into an undergraduate classroom as well as examples of the successes and failures the workshop presenters have faced in their own teaching experiences.
+In addition to some nuts-and-bolts teaching tools, the workshop will also address pedagogical issues concerning the impact of undergraduate archival coursework (including museums and manuscript collections) on students pursuing careers outside archives and records management disciplines, the potential for these undergraduate courses to attract additional students to graduate study, and the opportunity for this curricula to advance diversity initiatives across the discipline.
+Visit http://undergradarchivaled.wordpress.com/ for more information.</t>
+  </si>
+  <si>
+    <t>The healthcare sector in South Africa has evolved over several centuries into a very sophisticated network of institutions in the public and private sector. Most citizens of the country use the services provided by the public sector. While there are many opportunities to study different aspects of healthcare service provision in the public sector, it would seem that there is a dearth of studies that look specifically at the management of records and even fewer looking in the health sector specifically. In South Africa, there are have been eight masters or doctoral dissertations that were limited to five of the nine provinces of the country. Additionally the studies were limited to certain subjects such as completeness of records, impact of records on quality of healthcare as well as confidentiality and privacy. While the studies covered different aspects of records management within the country, they remained fragmented in their approach to the subject. This study seeks to investigate, in a holistic manner, the management of health records in public healthcare institutions in the country. Outside South Africa there have been there have been almost four dozen dissertations within the last three decades that have looked at the subject of records management in healthcare institutions.
+This study is a critical analysis the management of records in public healthcare institutions in South Africa. This entails an understanding of the key challenges faced by public sector healthcare institutions in South Africa. The study explores possible interventions drawing from experiences in Africa and around the world and has three basic aims.
+First, it assesses the legislative, policy and regulatory framework within which records are managed in public healthcare institutions in South Africa. Second, it assesses the extent to which public healthcare institutions in South Africa are managing records effectively. Lastly, it identifies appropriate records management interventions at both policy and operational level in order to assist the management of records in healthcare institutions. These interventions are drawn both from research data collection processes as well as gleaned from experiences from other nations based on literature review processes.
+The study engages a research methodology that uses three datasets for analysis and for each, an appropriate research tradition, either positivist of interpretivist is used. Dataset 1 is primary data, obtained by data collection by the doctoral student. Dataset 2 is data that was collected over the course of several years by an organisation known as COHSASA and made available to the researcher for analysis. Dataset 3 is data that was collected by a different researcher, who wished to remain anonymous, and was made available to the researcher.
+The presentation will provide a brief overview of the study and, if permission is granted, share a video presentation on the challenges of managing health records in South Africa obtained from one of the interview respondents during the course of data collection.</t>
+  </si>
+  <si>
+    <t>This presentation examines the research experience of working with people with early stage Alzheimer’s disease to create, capture and use records in a way that supports their memory and identity.  There are various techniques for the creation of autobiographical records in the context of doing life story work particularly as used by health professionals.  Even though there is much anecdotal evidence to the effectiveness of these activities there is a gap in the research with regards to what it means to create these records and just as importantly how they can be used and managed.
+The Storyline Project is a qualitative study with an interpretivist approach.  It uses grounded theory, a small cohort of in-depth case studies and open interviews to listen and learn from the people affected.  In turn it is this ‘conversation’ that allows both the research and the theory to evolve in what is an iterative process.
+This presentation reports on what it has meant to undertake sensitive research where there is a high impact factor for both researcher and participant.  It provides insight into the challenges and reality of designing research methods so that they can respond and adjust to unique contexts. These findings around research as a practice will be explored in light of their influence on archival research.
+1 Caulfield School of Information Technology, Monash University, East Caulfield, VIC Supported by Alzheimer’s Australia Research Postgraduate Scholarship in Dementia</t>
+  </si>
+  <si>
+    <t>New technologies are shattering physical borders and temporal boundaries. In the case of diasporas, networks have given rise to mythical, imaginary homelands that redefine the idea of belonging. If nostalgia denotes the metaphorical, albeit quasi-physical, ache for return, where do we return to when we are supposedly living in a borderless world?
+Memory institutions (libraries, archives, museums—concisely LAMs) hold the dispersed records of diasporas, and have traditionally reflected the master narratives of the state apparatuses and community elites. Curatorial control to the user-contributed content in social media applications that will eventually “make it” into the public eye perpetuate such practices and seldom incorporate such content into the official record. Archival literature focuses on LAMs using social media as a way to involve their users and form communities of knowledge around their holdings. My proposed research will explore how diasporic users can enhance the contextual understanding of records by taking them out of institutional stability and structures. Do social media provide the optimum way for user contributions? What about Linked Open Data? How can people mobilize records across transnational trajectories, redefining authority and reliability? How can this enable revisions of minority histories? The above issues will be examined through the lens of the diaspora of the Balkan Jewish communities.</t>
+  </si>
+  <si>
+    <t>In the late nineteenth century, Protestant foreign missionaries started entering Korea as teachers, translators, medical workers, reporters, and as other professional workers as the nation opened its doors to western countries. Even though their primary purposes revolved around evangelism, they also introduced elements of western culture into Korea. Their influence, which included the opening of the first western medical facilities and higher education institutions with western values, had a significant role in the modernization of Korea during that time period. The records of early Protestant foreign missionaries in Korea can be found in mission reports, letters, medical work records, missionary personal diaries, letters, published writings, and photos. These historical records are scattered in various places, including missionaries’ home country church archives, government archives, Korean church archives, scholarly collections, and private collections.
+This research focuses on developing a sustainable digital archive system for long-term preservation and use that can support services between institutions and countries.  The study covers the period from 1800 to 1910, from the beginning of Protestant missionaries’ activities for Korea until the Japanese annexation of Korea in 1910.</t>
+  </si>
+  <si>
+    <t>Borglund and Pearce-Moses will share observations on and asked questions about pedagogical and practical aspects of teaching graduate, digital archives courses online based on their experience. Participants will be encouraged to share their perspectives – as instructors and students in online education – and to consider ways to use these approaches to extend AERI’s work between meetings. Topics will include
+– Potential benefits and limitations of online education for archival education
+– Synchronous and asynchronous lectures, including relative benefits and limitations of both approaches
+– Promoting discussion among students, similar to seminars
+– Engaging students individually (such as online office hours, email, or voice)
+– Technologies to support online learning, including web conferences and learning management systems
+– Effective assignments and labs
+– Expectations for student’s minimum technical competency and working with students with little or no technical skills
+– Technical support and troubleshooting with online delivery channels</t>
+  </si>
+  <si>
+    <t>Grounded Theory involves the use of interviews and observations to develop theories and ideas. It is malleable in nature, which allows for the research question to develop and change as information is gathered. Initially ‘discovered’ in 1967, grounded theory has become an increasingly popular methodology in fields as diverse as nursing, information science, business and marketing, as well as archival science. It is also however, a much contested methodology, which is widely acknowledged as being ‘difficult’. This workshop will introduce participants to both the theoretical foundations and the hands-on mechanics of the Grounded Theory approach. Following a brief overview of Grounded Theory its history and basic principles, participants will practice interviewing, coding and memo writing techniques in a series of structured activities. Through undertaking these activities, participants will start to engage with some of the main ideas and issues which lie at the heart of Grounded Theory and may be summarized in terms of openness, emergence and integration.
+This workshop will build from the organisers’ experiences of using Grounded Theory in their own research and there will also be room to discuss the possible applications of Grounded Theory in the archival world and its suitability for specific research projects.
+This workshop is intended for people who would like to learn more about Grounded Theory and to gain experience with its basic techniques. Due to the need to cover a lot of ‘ground’ in quite a short space of time, participants will be expected to complete the preparatory readings before attending the workshop.</t>
+  </si>
+  <si>
+    <t>In this paper, the author will present a framework of the order and relationships of electronic records, and discuss how to manage the orders and relationships in records transfer, processing and access. In digital archiving, the order of electronic records has morphed into a multi-layer model and a complex web of relationships. Some of these orders and relationships are inherited from record producers and others are created by archival institutions for long-term preservation purposes. Some have equivalents in the paper world whereas others are unique to electronic records. Some can be examined and altered by archivists; others are determined by computer engineers and cannot be directly manipulated by archivists. Like paper records, electronic records have a conceptual order, which is the network of relationships among records that reflect the records creation context, i.e. how the records emerged through record creating functions and activities. Archivists arrange the digital record storage media and the folder structure within each storage medium based on the conceptual relationships among records. Compound electronic records also have an internal order in which the components are related and combined in presentation. The physical order in which the bits are inscribed to the storage media and the internal structures of computer files are usually not archival management concerns. In addition, electronic records archivists also need to manage the relationships between the paper and electronic components of an archival collection; the relationships between multiple formats of the same record that are created for different purposes; the relationships between multiple copies created for disaster recovery purposes; and the relationships between the original format and the multiple migrated versions, as well as the multiple captures taken to preserve dynamic records.
+When transferring electronic records from producers to archives, archivists respect the original order by creating folder structures that mimic the physical order of storage media, retaining the original folder structure and overcoming various threats to original order that occur in record copying. During processing, archivists decide to retain the original order or re-arrange electronic records based on factors similar to those considered for the arrangement of traditional records. Some unique features of electronic records, such as powerful search capabilities and automatic sorting, may make the decision to retain the original order more appealing. For preservation purposes, archivists often need to refresh storage media or migrate file formats. During these processes, although physical and logical orders may be altered, archivists need to make sure conceptual relationships remain intact. In access, digital archives need to present the original hierarchical structure of an archival collection, allow multiple arrangements, and present the layout structure of the content of electronic records.</t>
+  </si>
+  <si>
+    <t>My paper will be an outline and reflection on my literature review for my PhD.  I will explore some of the key themes from the literature on the information/evidence tension and the dimensions of its conflict or co-existence and in particular will explore the concepts of the record as information and the record as evidence. This will be done using Buckland’s typology of information as a framework. Especially relevant is the concept of “Information as Thing” (Bukcland, 1991) i.e. that an object is information because it has information qualities and that it is evidence of something.
+AERI presents a wonderful opportunity to receive feedback on my work so far and my research objectives.</t>
+  </si>
+  <si>
+    <t>This study continues research begun in 2011, which aims to gather data on how cultural institutions, specifically archives, libraries, and museums, are making archival moving images available online via institutional websites and videosharing services such as YouTube.   Archival moving images, whether they originate as analog motion picture film or video, or were born-digital, can be distinguished from other types of moving image collections by their perceived long-term value; they are materials “intended to be kept so that they may be available for future generations, regardless of their age at the time of acquisition” (see http://www.afana.org/mic.htm).  Laptops, cell phones, iPods, and iPads all offer users the opportunity to download, upload, view, and use moving images from library and archival collections in myriad ways and settings, making video consumption an anytime, anyplace phenomenon. This research aims to document current practices, attitudes, and future plans of moving image curators and managers regarding digitization and on-line distribution of archival moving images in the wake of increasingly ubiquitous mobile technologies.
+In the first part of the study, librarians, archivists, and curators responsible for development of digital collections at their institutions were identified and asked to participate in a short 20 question survey aimed at assessing the extent to which their institutions have engaged in or plan to engage in digitization of analog moving image material and acquisition of born-digital moving image material for long-term access and preservation. Questions also explore how digitized/digital moving image material has been made available to users (i.e., through institutional websites, via online catalogs, on videosharing sites, or through institutional repositories such as DSpace or Fedora).  Results of this study were first reported at AERI 2011, and an article summarizing findings will appear in American Archivist in 2012.
+This presentation will relate the most recent findings from the second part of the study, which provides a more in-depth investigation of archival engagement in moving image digitization projects.  For this qualitative study, the investigator conducted ten in-depth interviews with key informants to document more fully current digitization and digital distribution practices of interviewees’ institutions, explore archivists’ attitudes toward access in the digital environment, identify perceived barriers to launching such projects and programs, and discover their ambitions and plans for future work with digitized and born-digital archival moving images.</t>
+  </si>
+  <si>
+    <t>Information is a strategic Indigenous asset that has historically been extracted from Indigenous communities.  Concurrently, scholarship concerning Indigenous peoples is dependent on an intimate relationship with information in the form of archival materials which includes the creation of these resources during research, their disposition following research, as well as the critical investigation and commentary on previously collected resources.
+Indigenous scholars are actively articulating archival information praxis, policy, and theory in support of Indigenous peoplehood.   This research contextualizes the archival creative friction catalyzed by the historical pattern of information flow away from Indigenous communities into the archival diaspora, the impact of the relatively recent passage of the United Nations Declaration on the Rights of Indigenous Peoples (UNDRIP),  and the dynamic development of Indigenous related protocols.  Given this context this research proposes a curriculum initiative to support archivists in proactively engaging Indigenous protocols at critical decision points within their praxis.</t>
+  </si>
+  <si>
+    <t>Drawing from the text Selected Subaltern Studies, the postcolonial researcher’s reading of the “subaltern” in colonial records revealed how written documentations often put the subaltern in unfavorable light. The subaltern was characterized negatively because he/she was rebelling against the colonial record creator’s presence and culture. The text suggests a need for a self-reflexive reading of colonial history.  It isn’t about “knowing” or “getting” the subaltern because that claim of the postcolonial researcher would reproduce another assumption of “discovery” that would fixate the subaltern as a subject in the researcher’s own meta-narrative, without reflecting on his/her position within academia, an institution part of larger systems of western cultural domination.  Thus, I define my use of the postcolonial archival lens as studying records of colonial development, to follow traces of the subaltern–not to “get” the subaltern, but to focus on the conditions that created the subaltern, and if its possible to address the legacies of these conditions in the present day.
+I employed this theoretical framework through discursive analysis of captions on monuments and museum exhibits in Vigan’s Historic Core Zone.  Vigan is the capital city of Ilocos Sur, which is a province on the northwest coast of Luzon island, Philippines.  In 1999, Vigan was inscribed in UNESCO’s World Heritage List to preserve the city’s architecture and cultural artifacts that reflected 16th century Spanish colonial presence in the region.  By studying the “Vigan Dossier” that documents how Vigan became a World Heritage Site, I study the politics of historical and cultural discourse that postcolonial cultural heritage workers in Vigan had to navigate in order to address local issues of unemployment and poverty through cultural heritage market development. The story of Ilocano history in Vigan’s Historic Core Zone is framed by Spanish colonial dominance architecturally and interpretively.  In addition, the whole political-economic landscape that Vigan and the Ilocos region is presently situated is based on urban planning introduced by the Spaniards in the 16th century. I also analyzed the contents of monument and museum narratives, and how these publicly portray Eurocentric and nationalist discourses of Ilocano history and identity. The prominence of these narratives submerged connections across the traces of indigenous historical perspectives, which could be sources to critically analyze Ilocano colonization and postcolonial internalized oppression.  I find that reading Vigan as a postcolonial archival landscape requires a dialectical framework in which the records of differing cultural and historical perspectives can be read side by side, yet contextualized within their own narratives of history. This disaggregation of contexts can reveal how traces of Vigan played a role in global imperial schemes, and also, how other traces of Vigan reveal Ilocano indigeneity and anticolonial resistance. From here, is it possible to create an archival interpretation of place that can resonate with the contradicting historical memories of contemporary Ilocano subjects?</t>
+  </si>
+  <si>
+    <t>Passivity and Externalization: Archivists’ Avoidance of Personal Responsibility in Framing Appraisal</t>
+  </si>
+  <si>
+    <t>University of California Los Angeles; University of Californa Los Angeles; University of Californa Los Angeles; Simmons College; University of Michigan</t>
+  </si>
+  <si>
+    <t>University of Wisconsin Milwaukee; University of California Los Angeles; University of California Los Angeles; University of California Los Angeles</t>
+  </si>
+  <si>
+    <t>Creating a Strategy for
+Building a State Electronic Records Program</t>
+  </si>
+  <si>
+    <t>This presentation reports ongoing research underway at GSLIS, Simmons in the area of Cultural Heritage Informatics, focusing specifically on the often ambiguous role of archives and records. With the assistance of IMLS and NHPRC grants, GSLIS has been developing a cultural heritage informatics curriculum that includes experimental convergence projects with cultural heritage sites in the New England region. Each of these sites includes library, archival and museum materials, each of these sites has expressed the desire to connect and converge its holdings digitally and each identified a specific digital project to model a convergence product.
+Preliminary results from these sites not only indicate the many problematic issues and difficulties of convergence but also indicate the ambiguous nature of archives themselves within this type of cultural heritage setting. While the concept of convergence suggests a blurring of the traditional boundaries between record, object and artifact, and the affordances of technology accomodate that blurring archivists themselves need to be central players in redefining the cultural archive.
+This presentation will explore these issues, offering preliminary results from the cultural heritage sites. It will analyze and further probe the questions of cultural archives raised by these experiments.</t>
+  </si>
+  <si>
+    <t>Archival records are increasingly important evidence of American business and industrial history. As American industry has experienced decline, many buildings and sites associated with business, manufacturing, mining, and heavy industry have been altered, abandoned, or removed. It is unclear whether a comprehensive or coherent amount of historical material is being retained for future use by historians and other researchers.
+This presentation will chart the founding and early development of Baker Library at the Harvard Business School in Cambridge, Mass. Established in 1908 to serve the nation‟s first-ever graduate school of business and economics. With access to significant faculty and alumni, Baker Library quickly developed wide-ranging print and manuscript collections documenting business administration and economics. Of particular novelty at the school was the development of the Harvard Business School “case method,” in which student undertake analyses of real-world business problems. The construction of such cases required access to a variety of business information, data which was collected and preserved in Baker Library‟s collections.
+Construction of a standalone building in the new Business School campus in 1927 provided additional catalyst to Baker Library‟s expanding collections. In addition, the library developed a close and lasting relationship with the Business Historical Society whose mission was to “locate and preserve original business resources, promote the study of business, and publish research in business history.” Baker Library served as repository for the Society's collections and fully inherited the collections in 1953.
+A review of Baker's early history also allows opportunities to compare and contrast other significant American business archives. The Hagley Museum and Library in Wilmington Delaware, for instance, was founded in 1953 by Pierre S. du Pont, president of the E.I. du Pont de Nemours chemical company and chairman of General Motors. Formed initially as a library for du Pont‟s family papers and books, it merged with a du Pont industrial museum at the site of the company's former powder works in 1961 and became an active collector of business manuscripts. Alternatively, the collections of Archives Center within the National Museum of American History, part of the Smithsonian Institution, reflect museum origins and a curator's hands in its early development. Established initially as the  Museum of History and Technology in 1955 in Washington, D.C., many of its important industrial manuscripts were acquired while gathering objects and artifacts for interpretive exhibits opened in a new museum building in 1964.
+Although the mission, funding, and archival collecting activities of repositories for business records change over time, an examination of their establishment and early work highlights important differences in each institutional context which continue to affect their selection of manuscript material for permanent preservation. In the case of the Baker Library, support of graduate education, faculty research, and alumni interactions guided its acquisition activities quite differently from industrial museums such as Hagley and Smithsonian. This research not only reveals aspects of archival practice at this specific institution but can inform appraisal and selection theory and future collecting in the topical area of business and industrial manuscripts.</t>
+  </si>
+  <si>
+    <t>Modern criminals work across the boundaries between the physical and the digital worlds. Many argue that only one environment exists, with not boundary between the physical and the digital. That is debatable, but this paper argues that in the world of modern police investigations the physical/digital boundary clearly exists.  It is also argued that in many crimes the modern criminal can be interpreted and understood as a hybrid.  A hybrid is a unit of analysis that is an individual + Information Technology, i.e the IT cannot be seen as a separate artefact that individuals use. In this presentation the criminal and the criminal acts will be analyzed as a hybrid, but the way the police act in response to the crimes cannot be seen as hybrid action because the police separate their action into two specialist groups: IT-experts and traditional police officers.
+Police investigations should capture records of both the police activities as well as the criminals’ activities. A crime is often a chain of activities that can together be judged as a crime, and the police need to find evidence for this chain of activities.
+A criminal acting in a hybrid environment acts as if there are no borders: their activities can be carried out in fully digital, semi digital, and in fully analogue environments. However the police do not act as hybrids, they use expert police officers for surveillance in the digital world, and they use regular police officers to work in the analogue world. The IT-police are expert in IT activities and the others are experts in traditional police work. This means that the analogue police capture only records that they know are important for their tasks, and the IT police capture only records important to theirs. This unfortunately results in situations wherein complete and unbroken chains of criminal activities are not captured. After capture, the poilce need to aggregate collected records and evidence into a chain that provides proof “beyond reasonable doubt”. The collected records often lack the complete contextual richness that is needed to fully investigate a crime that has taken place in a hybrid environment.
+One problem with the current approach is that the records captured are not fully representing all the activities that the crime produces and encompasses.  It is not possible to understand the full range of the criminals’ behaviour because some activities have not been captured. When records are artificially aggregated without assurance that they are complete, authenticity and reliability of the records can then be challenged.
+Another issue that compunds the problem is that neither group accepts responsibility for records capture when information is exchanged between IT-police and traditional police.
+Knowledge from this research is transferable to other hybrid environments as for example business using social media, virtual communities as part of the advertisement and communication.
+There is a need for greater awareness that the criminal investigation is taking place in a hybrid arena and that the currently accepted perspective where the police act in different context separated by boundaries, negatively affects the quality of records capture. This research case is based on a large police investigation in Sweden. Problems related to records capture will be identified and solutions suggested.</t>
+  </si>
+  <si>
+    <t>Accountability is one of the foundational concepts upon which modern archival practice and theory is based. It is a concept that is seen to be basic because it relates to the degree towhich one can ensure the trustworthiness of records and, by extension, the accuracy and reliability of the record in question. 
+As the title of the proposed paper suggests, I argue that accountability is a concept that is increasingly fraught as a result of contemporary developments in record-keeping and politics more generally. It refers to two senses in which the end of accountability is occurring. The first is represented by the decreasing levels of transparency with regard to records of state, perhaps best typified by the USA Patriot Act. In this sense, accountability is coming to an end as a result of tactics targeted making it impossible to account for certain actions. This sense is descriptive and lamentable.
+The second sense in which I argue that accountability is coming to an end relates to the proliferation of documentation utilizing digital technologies and the challenge to basic principles supporting accountability that they illustrate. Accountability is ending in this sense due to the impossibility of ever truly being able to account for an action with certainty. The digital represents this in its apparent complexity, multiplicity and rapid “reconfigurability,” but it is merely a stark example of a deeper issue at the heart of modern societies and theories of information. This sense of the end of accountability is normative and, I argue, a positive development for archivists and record managers, who may use the end of accountability as an opportunity to fashion new conceptual tools with which to both evaluate and utilize records. 
+I draw first on an analysis of contemporary cases in which issues of records and accountability have surfaced in popular discourse, primarily the USA Patriot Act and Wikileaks, to illustrate the political aspects of the argument. I also draw on examples from my dissertation research on Personal Health Records and Self21 Documentation to illustrate arguments about the digital.</t>
   </si>
   <si>
     <t>The scope of the narrow pilot investigation by Paul Conway (reported in preliminary form at AERI 2011 and at the annual meeting of the Society of American Archivists) was to identify and describe collectively research articles published in three peer reviewed archival journals (American Archivist, Archivaria, Archival Science) from 2001 to 2011. The major focus of the pilot study was to explore the challenges of defining and identifying research articles, based on a preliminary definition of what a research article is.  Additionally, the preliminary study surfaced the complexity of coding the articles in terms of the source journal, first author characteristics, the topic/scope of the article, and its research method.  Finally, the results of the analysis of the data gathered in the preliminary study focused initially on the relationship of academia to practice, the continuing dominance of historical methods and survey research, and gaps in scope and topic. The preliminary study pointed to additional information that could/should be extracted from research articles to support deeper or more complex analysis. An independent, unreported analysis by Patti Condon (Simmons) used a complementary research method and had comparable, but not precisely overlapping findings.
@@ -1299,8 +1370,7 @@
 • Assembling and cleaning a master data set
 • Running preliminary analysis of the data
 • Complete full analysis and preparation of reports and presentations for AERI 2012.
-Collectively, all of the above is premised on a research design that has yet to be fully specified. Beyond basic descriptive statistics on the distribution of the data across an international dataset, the research may wish to develop an explanatory or a predictive model for understanding the dissemination of research-based knowledge through the international archival multiverse. The research is not conceived as either a citation or network analysis, although we expect that such analyses could make use of the SPARC dataset for such supplemental purposes. Additionally, the research as presently conceived does not actually engage the substance or content of the articles, and so is not capable of making qualitative
-judgments about the research methods or findings.
+Collectively, all of the above is premised on a research design that has yet to be fully specified. Beyond basic descriptive statistics on the distribution of the data across an international dataset, the research may wish to develop an explanatory or a predictive model for understanding the dissemination of research-based knowledge through the international archival multiverse. The research is not conceived as either a citation or network analysis, although we expect that such analyses could make use of the SPARC dataset for such supplemental purposes. Additionally, the research as presently conceived does not actually engage the substance or content of the articles, and so is not capable of making qualitative judgments about the research methods or findings.
 A faculty advisory board will support the larger international research project. The members are:  Richard Cox (Pittsburg USA), Jonathan Furner (UCLA USA), Eric Ketelaar (Netherlands), Geoffrey Yeo (UCL UK), and An Xiaomi (RUC China). The role of the advisory board for an expanded project is to advise on the overall research design (including research questions, journal selection) and to help validate the data model (and analysis) for the international project. The board will also review findings and comment on the significance of the project.
 A team of four doctoral students, guided by Paul Conway (University of Michigan), will gather data from a corpus of archival research literature using a template that the team develops collaboratively. The team will analyze and report the findings. The team consists of the following students: Patti Condon (Simmons College USA), Jonathan Dorey (McGill University Canada), Patricia Garcia (UCLA USA), Weiwei Song (Renmin University of China).
 In presenting the results of this work at AERI 2012 at UCLA, the concept is to offer a plenary session that is introduced by Conway, with results presented by one or more doctoral students who did the data gathering and preliminary analysis, followed by commentary by a member of the advisory board.
@@ -1310,88 +1380,13 @@
 b. Peer-review prior to formal publication
 c. 1994-2011, reviewed from present back
 2. Research definition
-a. Systematic inquiry, explicit methodology, evidence organized and presented in context of a question or hypothesis, conclusion reached and implications
-discussed
+a. Systematic inquiry, explicit methodology, evidence organized and presented in context of a question or hypothesis, conclusion reached and implications discussed
 b. Inquiry explicitly framed as archivistics (Ketelaar) or archival science
 3. Procedure
 a. Hierarchy of investigation that starts with peer reviewed journals and proceeds iteratively as follows: peer reviewed archival journals, peer reviewed journals in other disciplines, archived conference proceedings (full papers), books and book chapters, research papers and reports with significant editorial oversight.
 b. Code information found in the source, including evidence on: source, authors,
 topic, research method
 c. Vet questionable inclusions/exclusions within the research team</t>
-  </si>
-  <si>
-    <t>Does archival training and research begin in graduate school or can we as educators encourage undergraduates to understand and use archives? How can archival educators improve outreach efforts and promote the archival profession as a viable and fulfilling career option to undergraduates? Recent efforts within the AERI community, such as the Emerging Archival Scholars Program, demonstrate a strong interest in extending the reach of archival education to recruit undergraduate
-students.
-Yet there is scant literature on the design and teaching of undergraduate credit coursework relating to archival administration. This workshop will address the development of undergraduate courses that incorporate archival education, fostering understanding and use of archives and archival materials. The session will include consideration of potential curricular components, including readings/textbooks, lecture content, hands-on projects, and the potential for guest lecturers and field experiences.
-The expected outcomes of the workshop include:
--Identify and articulate objectives appropriate for undergraduate course syllabi.
--Develop a working bibliography for introducing students to archival theories, concepts, and principles.
--Create a pool of example exercises that support and satisfy identified objectives.
--Develop lesson plans that engage undergraduate students.
-The 90-minute workshop will involve a strategic session discussing how best to incorporate archival education and training into an undergraduate classroom as well as examples of the successes and failures the workshop presenters have faced in their own teaching experiences.
-In addition to some nuts-and-bolts teaching tools, the workshop will also address pedagogical issues concerning the impact of undergraduate archival coursework (including museums and manuscript collections) on students pursuing careers outside archives and records management disciplines, the potential for these undergraduate courses to attract additional students to graduate study, and the opportunity for this curricula to advance diversity initiatives across the discipline.
-Visit http://undergradarchivaled.wordpress.com/ for more information.</t>
-  </si>
-  <si>
-    <t>The healthcare sector in South Africa has evolved over several centuries into a very sophisticated network of institutions in the public and private sector. Most citizens of the country use the services provided by the public sector. While there are many opportunities to study different aspects of healthcare service provision in the public sector, it would seem that there is a dearth of studies that look specifically at the management of records and even fewer looking in the health sector specifically. In South Africa, there are have been eight masters or doctoral dissertations that were limited to five of the nine provinces of the country. Additionally the studies were limited to certain subjects such as completeness of records, impact of records on quality of healthcare as well as confidentiality and privacy. While the studies covered different aspects of records management within the country, they remained fragmented in their approach to the subject. This study seeks to investigate, in a holistic manner, the management of health records in public healthcare institutions in the country. Outside South Africa there have been there have been almost four dozen dissertations within the last three decades that have looked at the subject of records management in healthcare institutions.
-This study is a critical analysis the management of records in public healthcare institutions in South Africa. This entails an understanding of the key challenges faced by public sector healthcare institutions in South Africa. The study explores possible interventions drawing from experiences in Africa and around the world and has three basic aims.
-First, it assesses the legislative, policy and regulatory framework within which records are managed in public healthcare institutions in South Africa. Second, it assesses the extent to which public healthcare institutions in South Africa are managing records effectively. Lastly, it identifies appropriate records management interventions at both policy and operational level in order to assist the management of records in healthcare institutions. These interventions are drawn both from research data collection processes as well as gleaned from experiences from other nations based on literature review processes.
-The study engages a research methodology that uses three datasets for analysis and for each, an appropriate research tradition, either positivist of interpretivist is used. Dataset 1 is primary data, obtained by data collection by the doctoral student. Dataset 2 is data that was collected over the course of several years by an organisation known as COHSASA and made available to the researcher for analysis. Dataset 3 is data that was collected by a different researcher, who wished to remain anonymous, and was made available to the researcher.
-The presentation will provide a brief overview of the study and, if permission is granted, share a video presentation on the challenges of managing health records in South Africa obtained from one of the interview respondents during the course of data collection.</t>
-  </si>
-  <si>
-    <t>This presentation examines the research experience of working with people with early stage Alzheimer’s disease to create, capture and use records in a way that supports their memory and identity.  There are various techniques for the creation of autobiographical records in the context of doing life story work particularly as used by health professionals.  Even though there is much anecdotal evidence to the effectiveness of these activities there is a gap in the research with regards to what it means to create these records and just as importantly how they can be used and managed.
-The Storyline Project is a qualitative study with an interpretivist approach.  It uses grounded theory, a small cohort of in-depth case studies and open interviews to listen and learn from the people affected.  In turn it is this ‘conversation’ that allows both the research and the theory to evolve in what is an iterative process.
-This presentation reports on what it has meant to undertake sensitive research where there is a high impact factor for both researcher and participant.  It provides insight into the challenges and reality of designing research methods so that they can respond and adjust to unique contexts. These findings around research as a practice will be explored in light of their influence on archival research.
-1 Caulfield School of Information Technology, Monash University, East Caulfield, VIC Supported by Alzheimer’s Australia Research Postgraduate Scholarship in Dementia</t>
-  </si>
-  <si>
-    <t>New technologies are shattering physical borders and temporal boundaries. In the case of diasporas, networks have given rise to mythical, imaginary homelands that redefine the idea of belonging. If nostalgia denotes the metaphorical, albeit quasi-physical, ache for return, where do we return to when we are supposedly living in a borderless world?
-Memory institutions (libraries, archives, museums—concisely LAMs) hold the dispersed records of diasporas, and have traditionally reflected the master narratives of the state apparatuses and community elites. Curatorial control to the user-contributed content in social media applications that will eventually “make it” into the public eye perpetuate such practices and seldom incorporate such content into the official record. Archival literature focuses on LAMs using social media as a way to involve their users and form communities of knowledge around their holdings. My proposed research will explore how diasporic users can enhance the contextual understanding of records by taking them out of institutional stability and structures. Do social media provide the optimum way for user contributions? What about Linked Open Data? How can people mobilize records across transnational trajectories, redefining authority and reliability? How can this enable revisions of minority histories? The above issues will be examined through the lens of the diaspora of the Balkan Jewish communities.</t>
-  </si>
-  <si>
-    <t>In the late nineteenth century, Protestant foreign missionaries started entering Korea as teachers, translators, medical workers, reporters, and as other professional workers as the nation opened its doors to western countries. Even though their primary purposes revolved around evangelism, they also introduced elements of western culture into Korea. Their influence, which included the opening of the first western medical facilities and higher education institutions with western values, had a significant role in the modernization of Korea during that time period. The records of early Protestant foreign missionaries in Korea can be found in mission reports, letters, medical work records, missionary personal diaries, letters, published writings, and photos. These historical records are scattered in various places, including missionaries’ home country church archives, government archives, Korean church archives, scholarly collections, and private collections.
-This research focuses on developing a sustainable digital archive system for long-term preservation and use that can support services between institutions and countries.  The study covers the period from 1800 to 1910, from the beginning of Protestant missionaries’ activities for Korea until the Japanese annexation of Korea in 1910.</t>
-  </si>
-  <si>
-    <t>Borglund and Pearce-Moses will share observations on and asked questions about pedagogical and practical aspects of teaching graduate, digital archives courses online based on their experience. Participants will be encouraged to share their perspectives – as instructors and students in online education – and to consider ways to use these approaches to extend AERI’s work between meetings. Topics will include
-– Potential benefits and limitations of online education for archival education
-– Synchronous and asynchronous lectures, including relative benefits and limitations of both approaches
-– Promoting discussion among students, similar to seminars
-– Engaging students individually (such as online office hours, email, or voice)
-– Technologies to support online learning, including web conferences and learning management systems
-– Effective assignments and labs
-– Expectations for student’s minimum technical competency and working with students with little or no technical skills
-– Technical support and troubleshooting with online delivery channels</t>
-  </si>
-  <si>
-    <t>Grounded Theory involves the use of interviews and observations to develop theories and ideas. It is malleable in nature, which allows for the research question to develop and change as information is gathered. Initially ‘discovered’ in 1967, grounded theory has become an increasingly popular methodology in fields as diverse as nursing, information science, business and marketing, as well as archival science. It is also however, a much contested methodology, which is widely acknowledged as being ‘difficult’. This workshop will introduce participants to both the theoretical foundations and the hands-on mechanics of the Grounded Theory approach. Following a brief overview of Grounded Theory its history and basic principles, participants will practice interviewing, coding and memo writing techniques in a series of structured activities. Through undertaking these activities, participants will start to engage with some of the main ideas and issues which lie at the heart of Grounded Theory and may be summarized in terms of openness, emergence and integration.
-This workshop will build from the organisers’ experiences of using Grounded Theory in their own research and there will also be room to discuss the possible applications of Grounded Theory in the archival world and its suitability for specific research projects.
-This workshop is intended for people who would like to learn more about Grounded Theory and to gain experience with its basic techniques. Due to the need to cover a lot of ‘ground’ in quite a short space of time, participants will be expected to complete the preparatory readings before attending the workshop.</t>
-  </si>
-  <si>
-    <t>In this paper, the author will present a framework of the order and relationships of electronic records, and discuss how to manage the orders and relationships in records transfer, processing and access. In digital archiving, the order of electronic records has morphed into a multi-layer model and a complex web of relationships. Some of these orders and relationships are inherited from record producers and others are created by archival institutions for long-term preservation purposes. Some have equivalents in the paper world whereas others are unique to electronic records. Some can be examined and altered by archivists; others are determined by computer engineers and cannot be directly manipulated by archivists. Like paper records, electronic records have a conceptual order, which is the network of relationships among records that reflect the records creation context, i.e. how the records emerged through record creating functions and activities. Archivists arrange the digital record storage media and the folder structure within each storage medium based on the conceptual relationships among records. Compound electronic records also have an internal order in which the components are related and combined in presentation. The physical order in which the bits are inscribed to the storage media and the internal structures of computer files are usually not archival management concerns. In addition, electronic records archivists also need to manage the relationships between the paper and electronic components of an archival collection; the relationships between multiple formats of the same record that are created for different purposes; the relationships between multiple copies created for disaster recovery purposes; and the relationships between the original format and the multiple migrated versions, as well as the multiple captures taken to preserve dynamic records.
-When transferring electronic records from producers to archives, archivists respect the original order by creating folder structures that mimic the physical order of storage media, retaining the original folder structure and overcoming various threats to original order that occur in record copying. During processing, archivists decide to retain the original order or re-arrange electronic records based on factors similar to those considered for the arrangement of traditional records. Some unique features of electronic records, such as powerful search capabilities and automatic sorting, may make the decision to retain the original order more appealing. For preservation purposes, archivists often need to refresh storage media or migrate file formats. During these processes, although physical and logical orders may be altered, archivists need to make sure conceptual relationships remain intact. In access, digital archives need to present the original hierarchical structure of an archival collection, allow multiple arrangements, and present the layout structure of the content of electronic records.</t>
-  </si>
-  <si>
-    <t>My paper will be an outline and reflection on my literature review for my PhD.  I will explore some of the key themes from the literature on the information/evidence tension and the dimensions of its conflict or co-existence and in particular will explore the concepts of the record as information and the record as evidence. This will be done using Buckland’s typology of information as a framework. Especially relevant is the concept of “Information as Thing” (Bukcland, 1991) i.e. that an object is information because it has information qualities and that it is evidence of something.
-AERI presents a wonderful opportunity to receive feedback on my work so far and my research objectives.</t>
-  </si>
-  <si>
-    <t>This study continues research begun in 2011, which aims to gather data on how cultural institutions, specifically archives, libraries, and museums, are making archival moving images available online via institutional websites and videosharing services such as YouTube.   Archival moving images, whether they originate as analog motion picture film or video, or were born-digital, can be distinguished from other types of moving image collections by their perceived long-term value; they are materials “intended to be kept so that they may be available for future generations, regardless of their age at the time of acquisition” (see http://www.afana.org/mic.htm).  Laptops, cell phones, iPods, and iPads all offer users the opportunity to download, upload, view, and use moving images from library and archival collections in myriad ways and settings, making video consumption an anytime, anyplace phenomenon. This research aims to document current practices, attitudes, and future plans of moving image curators and managers regarding digitization and on-line distribution of archival moving images in the wake of increasingly ubiquitous mobile technologies.
-In the first part of the study, librarians, archivists, and curators responsible for development of digital collections at their institutions were identified and asked to participate in a short 20 question survey aimed at assessing the extent to which their institutions have engaged in or plan to engage in digitization of analog moving image material and acquisition of born-digital moving image material for long-term access and preservation. Questions also explore how digitized/digital moving image material has been made available to users (i.e., through institutional websites, via online catalogs, on videosharing sites, or through institutional repositories such as DSpace or Fedora).  Results of this study were first reported at AERI 2011, and an article summarizing findings will appear in American Archivist in 2012.
-This presentation will relate the most recent findings from the second part of the study, which provides a more in-depth investigation of archival engagement in moving image digitization projects.  For this qualitative study, the investigator conducted ten in-depth interviews with key informants to document more fully current digitization and digital distribution practices of interviewees’ institutions, explore archivists’ attitudes toward access in the digital environment, identify perceived barriers to launching such projects and programs, and discover their ambitions and plans for future work with digitized and born-digital archival moving images.</t>
-  </si>
-  <si>
-    <t>Information is a strategic Indigenous asset that has historically been extracted from Indigenous communities.  Concurrently, scholarship concerning Indigenous peoples is dependent on an intimate relationship with information in the form of archival materials which includes the creation of these resources during research, their disposition following research, as well as the critical investigation and commentary on previously collected resources.
-Indigenous scholars are actively articulating archival information praxis, policy, and theory in support of Indigenous peoplehood.   This research contextualizes the archival creative friction catalyzed by the historical pattern of information flow away from Indigenous communities into the archival diaspora, the impact of the relatively recent passage of the United Nations Declaration on the Rights of Indigenous Peoples (UNDRIP),  and the dynamic development of Indigenous related protocols.  Given this context this research proposes a curriculum initiative to support archivists in proactively engaging Indigenous protocols at critical decision points within their praxis.</t>
-  </si>
-  <si>
-    <t>Drawing from the text Selected Subaltern Studies, the postcolonial researcher’s reading of the “subaltern” in colonial records revealed how written documentations often put the subaltern in unfavorable light. The subaltern was characterized negatively because he/she was rebelling against the colonial record creator’s presence and culture. The text suggests a need for a self-reflexive reading of colonial history.  It isn’t about “knowing” or “getting” the subaltern because that claim of the postcolonial researcher would reproduce another assumption of “discovery” that would fixate the subaltern as a subject in the researcher’s own meta-narrative, without reflecting on his/her position within academia, an institution part of larger systems of western cultural domination.  Thus, I define my use of the postcolonial archival lens as studying records of colonial development, to follow traces of the subaltern–not to “get” the subaltern, but to focus on the conditions that created the subaltern, and if its possible to address the legacies of these conditions in the present day.
-I employed this theoretical framework through discursive analysis of captions on monuments and museum exhibits in Vigan’s Historic Core Zone.  Vigan is the capital city of Ilocos Sur, which is a province on the northwest coast of Luzon island, Philippines.  In 1999, Vigan was inscribed in UNESCO’s World Heritage List to preserve the city’s architecture and cultural artifacts that reflected 16th century Spanish colonial presence in the region.  By studying the “Vigan Dossier” that documents how Vigan became a World Heritage Site, I study the politics of historical and cultural discourse that postcolonial cultural heritage workers in Vigan had to navigate in order to address local issues of unemployment and poverty through cultural heritage market development. The story of Ilocano history in Vigan’s Historic Core Zone is framed by Spanish colonial dominance architecturally and interpretively.  In addition, the whole political-economic landscape that Vigan and the Ilocos region is presently situated is based on urban planning introduced by the Spaniards in the 16th century. I also analyzed the contents of monument and museum narratives, and how these publicly portray Eurocentric and nationalist discourses of Ilocano history and identity. The prominence of these narratives submerged connections across the traces of indigenous historical perspectives, which could be sources to critically analyze Ilocano colonization and postcolonial internalized oppression.  I find that reading Vigan as a postcolonial archival landscape requires a dialectical framework in which the records of differing cultural and historical perspectives can be read side by side, yet contextualized within their own narratives of history. This disaggregation of contexts can reveal how traces of Vigan played a role in global imperial schemes, and also, how other traces of Vigan reveal Ilocano indigeneity and anticolonial resistance. From here, is it possible to create an archival interpretation of place that can resonate with the contradicting historical memories of contemporary Ilocano subjects?</t>
-  </si>
-  <si>
-    <t>Passivity and Externalization: Archivists’ Avoidance of Personal Responsibility in Framing Appraisal</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1399,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1870,27 +1864,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C89E212-6600-8948-B709-62F74D547048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.796875" customWidth="1"/>
-    <col min="3" max="3" width="23.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" customWidth="1"/>
-    <col min="5" max="5" width="27.796875" customWidth="1"/>
-    <col min="6" max="6" width="58.8984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" style="8" customWidth="1"/>
     <col min="7" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="32.296875" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1919,7 +1913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2012001</v>
       </c>
@@ -1936,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1945,10 +1939,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012002</v>
       </c>
@@ -1968,16 +1962,16 @@
         <v>179</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2012003</v>
       </c>
@@ -1994,19 +1988,19 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2012004</v>
       </c>
@@ -2023,19 +2017,19 @@
         <v>264</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2012005</v>
       </c>
@@ -2052,19 +2046,19 @@
         <v>264</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2012006</v>
       </c>
@@ -2075,25 +2069,25 @@
         <v>231</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2012007</v>
       </c>
@@ -2104,25 +2098,25 @@
         <v>232</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2012008</v>
       </c>
@@ -2133,7 +2127,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
@@ -2142,16 +2136,16 @@
         <v>180</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2012009</v>
       </c>
@@ -2168,19 +2162,19 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2012010</v>
       </c>
@@ -2197,19 +2191,19 @@
         <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2012011</v>
       </c>
@@ -2226,19 +2220,19 @@
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2012012</v>
       </c>
@@ -2258,16 +2252,16 @@
         <v>181</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2012013</v>
       </c>
@@ -2277,26 +2271,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2012014</v>
       </c>
@@ -2313,19 +2307,19 @@
         <v>266</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2012015</v>
       </c>
@@ -2342,19 +2336,19 @@
         <v>42</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2012016</v>
       </c>
@@ -2365,25 +2359,25 @@
         <v>235</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2012017</v>
       </c>
@@ -2394,25 +2388,25 @@
         <v>236</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>266</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2012018</v>
       </c>
@@ -2423,25 +2417,25 @@
         <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2012019</v>
       </c>
@@ -2467,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2012020</v>
       </c>
@@ -2487,19 +2481,19 @@
         <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2012021</v>
       </c>
@@ -2516,19 +2510,19 @@
         <v>266</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2012022</v>
       </c>
@@ -2548,16 +2542,16 @@
         <v>184</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2012023</v>
       </c>
@@ -2574,19 +2568,19 @@
         <v>61</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2012024</v>
       </c>
@@ -2606,16 +2600,16 @@
         <v>185</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2012025</v>
       </c>
@@ -2632,19 +2626,19 @@
         <v>65</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2012026</v>
       </c>
@@ -2661,19 +2655,19 @@
         <v>266</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>2012027</v>
       </c>
@@ -2690,19 +2684,19 @@
         <v>68</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>2012028</v>
       </c>
@@ -2719,19 +2713,19 @@
         <v>266</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>2012029</v>
       </c>
@@ -2748,19 +2742,19 @@
         <v>266</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2012030</v>
       </c>
@@ -2777,19 +2771,19 @@
         <v>74</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>2012031</v>
       </c>
@@ -2809,16 +2803,16 @@
         <v>186</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2012032</v>
       </c>
@@ -2835,19 +2829,19 @@
         <v>266</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>2012033</v>
       </c>
@@ -2867,16 +2861,16 @@
         <v>187</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>2012034</v>
       </c>
@@ -2896,16 +2890,16 @@
         <v>188</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>2012035</v>
       </c>
@@ -2922,19 +2916,19 @@
         <v>266</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2012036</v>
       </c>
@@ -2951,19 +2945,19 @@
         <v>86</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2012037</v>
       </c>
@@ -2980,19 +2974,19 @@
         <v>87</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2012038</v>
       </c>
@@ -3000,7 +2994,7 @@
         <v>220</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>50</v>
@@ -3018,10 +3012,10 @@
         <v>11</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2012039</v>
       </c>
@@ -3041,16 +3035,16 @@
         <v>190</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>2012040</v>
       </c>
@@ -3064,22 +3058,22 @@
         <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2012041</v>
       </c>
@@ -3099,16 +3093,16 @@
         <v>271</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2012042</v>
       </c>
@@ -3128,16 +3122,16 @@
         <v>191</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>2012043</v>
       </c>
@@ -3157,16 +3151,16 @@
         <v>192</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>2012044</v>
       </c>
@@ -3183,19 +3177,19 @@
         <v>97</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>2012045</v>
       </c>
@@ -3215,16 +3209,16 @@
         <v>193</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2012046</v>
       </c>
@@ -3238,22 +3232,22 @@
         <v>96</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>2012047</v>
       </c>
@@ -3273,16 +3267,16 @@
         <v>195</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>2012048</v>
       </c>
@@ -3296,22 +3290,22 @@
         <v>93</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>2012049</v>
       </c>
@@ -3322,7 +3316,7 @@
         <v>105</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>106</v>
@@ -3331,16 +3325,16 @@
         <v>196</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>2012050</v>
       </c>
@@ -3351,25 +3345,25 @@
         <v>244</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>2012051</v>
       </c>
@@ -3380,7 +3374,7 @@
         <v>41</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>266</v>
@@ -3389,16 +3383,16 @@
         <v>197</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>2012052</v>
       </c>
@@ -3409,25 +3403,25 @@
         <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>2012053</v>
       </c>
@@ -3438,7 +3432,7 @@
         <v>237</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>266</v>
@@ -3447,16 +3441,16 @@
         <v>198</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>2012054</v>
       </c>
@@ -3467,25 +3461,25 @@
         <v>232</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>2012055</v>
       </c>
@@ -3502,7 +3496,7 @@
         <v>115</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>11</v>
@@ -3511,10 +3505,10 @@
         <v>11</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>2012056</v>
       </c>
@@ -3522,7 +3516,7 @@
         <v>225</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>116</v>
@@ -3531,19 +3525,19 @@
         <v>117</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>2012057</v>
       </c>
@@ -3554,25 +3548,25 @@
         <v>119</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>2012058</v>
       </c>
@@ -3583,25 +3577,25 @@
         <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>2012059</v>
       </c>
@@ -3618,19 +3612,19 @@
         <v>126</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>2012060</v>
       </c>
@@ -3650,16 +3644,16 @@
         <v>272</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>2012061</v>
       </c>
@@ -3676,19 +3670,19 @@
         <v>130</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>2012062</v>
       </c>
@@ -3705,19 +3699,19 @@
         <v>131</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>2012063</v>
       </c>
@@ -3734,19 +3728,19 @@
         <v>133</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>2012064</v>
       </c>
@@ -3772,10 +3766,10 @@
         <v>11</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>2012065</v>
       </c>
@@ -3783,7 +3777,7 @@
         <v>229</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>135</v>
@@ -3795,16 +3789,16 @@
         <v>199</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>2012066</v>
       </c>
@@ -3815,7 +3809,7 @@
         <v>78</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>266</v>
@@ -3824,16 +3818,16 @@
         <v>200</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>2012067</v>
       </c>
@@ -3844,25 +3838,25 @@
         <v>139</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>2012068</v>
       </c>
@@ -3873,25 +3867,25 @@
         <v>250</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>2012069</v>
       </c>
@@ -3911,16 +3905,16 @@
         <v>201</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>2012070</v>
       </c>
@@ -3934,22 +3928,22 @@
         <v>142</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>2012071</v>
       </c>
@@ -3966,19 +3960,19 @@
         <v>148</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>2012072</v>
       </c>
@@ -3998,16 +3992,16 @@
         <v>202</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>2012073</v>
       </c>
@@ -4024,19 +4018,19 @@
         <v>152</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>2012074</v>
       </c>
@@ -4062,10 +4056,10 @@
         <v>211</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>2012075</v>
       </c>
@@ -4091,10 +4085,10 @@
         <v>211</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>2012076</v>
       </c>
@@ -4120,10 +4114,10 @@
         <v>211</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>2012077</v>
       </c>
@@ -4149,10 +4143,10 @@
         <v>211</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>2012078</v>
       </c>
@@ -4178,10 +4172,10 @@
         <v>211</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>2012079</v>
       </c>
@@ -4207,10 +4201,10 @@
         <v>211</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>2012080</v>
       </c>
@@ -4236,10 +4230,10 @@
         <v>211</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>2012081</v>
       </c>
@@ -4265,10 +4259,10 @@
         <v>211</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>2012082</v>
       </c>
@@ -4294,10 +4288,10 @@
         <v>211</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>2012083</v>
       </c>
@@ -4323,10 +4317,10 @@
         <v>211</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>2012084</v>
       </c>
@@ -4352,10 +4346,10 @@
         <v>211</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>2012085</v>
       </c>
@@ -4381,10 +4375,10 @@
         <v>211</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>2012086</v>
       </c>
@@ -4410,10 +4404,10 @@
         <v>211</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>2012087</v>
       </c>
@@ -4439,10 +4433,10 @@
         <v>211</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>2012088</v>
       </c>
@@ -4468,10 +4462,10 @@
         <v>211</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>2012089</v>
       </c>
@@ -4497,10 +4491,10 @@
         <v>211</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>2012090</v>
       </c>
@@ -4526,10 +4520,10 @@
         <v>211</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>2012091</v>
       </c>
@@ -4555,10 +4549,10 @@
         <v>211</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>2012092</v>
       </c>
@@ -4584,10 +4578,10 @@
         <v>211</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>2012093</v>
       </c>
@@ -4595,13 +4589,13 @@
         <v>176</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>262</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>268</v>
@@ -4613,10 +4607,10 @@
         <v>211</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>2012094</v>
       </c>
@@ -4642,17 +4636,15 @@
         <v>211</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
+        <v>338</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" display="http://aeri.website/conference-schedule/archives-and-human-rights/" xr:uid="{16930087-539C-7D4F-B78D-3A753506D5FB}"/>
-    <hyperlink ref="F14" r:id="rId2" display="http://infotech.monash.edu.au/non-cms/about/news/conferences/aihr/index.html" xr:uid="{F2236E4C-8A20-E74A-838B-03141A185B1C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>